--- a/Task #1/Template.xlsx
+++ b/Task #1/Template.xlsx
@@ -92,9 +92,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.4766185476815392E-2"/>
-          <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.79745603674540677"/>
+          <c:x val="7.1988407699037624E-2"/>
+          <c:y val="4.6770924467774859E-2"/>
+          <c:w val="0.77393405534453119"/>
           <c:h val="0.88912438028579766"/>
         </c:manualLayout>
       </c:layout>
@@ -481,11 +481,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="151986944"/>
-        <c:axId val="151988480"/>
+        <c:axId val="154084096"/>
+        <c:axId val="154085632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="151986944"/>
+        <c:axId val="154084096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -495,7 +495,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151988480"/>
+        <c:crossAx val="154085632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -503,7 +503,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151988480"/>
+        <c:axId val="154085632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -514,14 +514,23 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151986944"/>
+        <c:crossAx val="154084096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.88849999999999996"/>
+          <c:y val="8.6043671624380286E-2"/>
+          <c:w val="0.1115"/>
+          <c:h val="0.83717191601049867"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -546,8 +555,8 @@
       <xdr:rowOff>64770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>49530</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>64770</xdr:rowOff>
     </xdr:to>
@@ -860,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:K1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Task #1/Template.xlsx
+++ b/Task #1/Template.xlsx
@@ -13,14 +13,6 @@
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>x</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -92,9 +84,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.1988407699037624E-2"/>
-          <c:y val="4.6770924467774859E-2"/>
-          <c:w val="0.77393405534453119"/>
+          <c:x val="7.3230792107006004E-2"/>
+          <c:y val="4.677085462795217E-2"/>
+          <c:w val="0.64083815371010033"/>
           <c:h val="0.88912438028579766"/>
         </c:manualLayout>
       </c:layout>
@@ -109,9 +101,6 @@
               <c:f>Лист1!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -146,9 +135,6 @@
               <c:f>Лист1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -183,9 +169,6 @@
               <c:f>Лист1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -220,9 +203,6 @@
               <c:f>Лист1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -257,9 +237,6 @@
               <c:f>Лист1!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -294,9 +271,6 @@
               <c:f>Лист1!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -331,9 +305,6 @@
               <c:f>Лист1!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>7</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -368,9 +339,6 @@
               <c:f>Лист1!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -405,9 +373,6 @@
               <c:f>Лист1!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>9</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -442,9 +407,6 @@
               <c:f>Лист1!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -481,11 +443,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="154084096"/>
-        <c:axId val="154085632"/>
+        <c:axId val="173282048"/>
+        <c:axId val="173283584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="154084096"/>
+        <c:axId val="173282048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -495,7 +457,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154085632"/>
+        <c:crossAx val="173283584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -503,7 +465,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154085632"/>
+        <c:axId val="173283584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -514,7 +476,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154084096"/>
+        <c:crossAx val="173282048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -525,9 +487,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.88849999999999996"/>
-          <c:y val="8.6043671624380286E-2"/>
-          <c:w val="0.1115"/>
+          <c:x val="0.79724383149501099"/>
+          <c:y val="6.8138550720551153E-2"/>
+          <c:w val="0.19474018878463895"/>
           <c:h val="0.83717191601049867"/>
         </c:manualLayout>
       </c:layout>
@@ -549,16 +511,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>354330</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>300990</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -867,59 +829,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <f>B1+1</f>
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <f t="shared" ref="D1:K1" si="0">C1+1</f>
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultColWidth="17.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Task #1/Template.xlsx
+++ b/Task #1/Template.xlsx
@@ -443,11 +443,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="173282048"/>
-        <c:axId val="173283584"/>
+        <c:axId val="151331584"/>
+        <c:axId val="151333120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="173282048"/>
+        <c:axId val="151331584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -457,15 +457,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173283584"/>
+        <c:crossAx val="151333120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="5"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="173283584"/>
+        <c:axId val="151333120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -476,9 +477,9 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173282048"/>
+        <c:crossAx val="151331584"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -832,7 +833,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="B1" sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
